--- a/biology/Botanique/Tubaria/Tubaria.xlsx
+++ b/biology/Botanique/Tubaria/Tubaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tubaria (W.G. Smith) Gillet (1876), de son nom français Tubaire, est un genre de champignons traditionnellement rattachés à la famille des Cortinariaceae[1]. Munis d'un stipe, à silhouette collybioïde ou mycénoïde, lames subdécurrentes à décurrentes. Revêtement fibrilleux, parfois un peu tomenteux, en général sec.    
-Vizzini préfère le placer dans les Tubariaceae Vizz. 2008 [2] mais les études phylogénétiques[3] le classe dans le clade VI des agaricales.  Selon Index Fungorum                                      (7 avril 2012)[4] et MycoBank                                            (7 avril 2012)[5], il fait encore partie de la famille des Inocybaceae. Le genre est largement distribué (en particulier dans les régions tempérées) et contient environ 20 espèces[6]. Type: Agaricus furfuraceus Pers. : Fr.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tubaria (W.G. Smith) Gillet (1876), de son nom français Tubaire, est un genre de champignons traditionnellement rattachés à la famille des Cortinariaceae. Munis d'un stipe, à silhouette collybioïde ou mycénoïde, lames subdécurrentes à décurrentes. Revêtement fibrilleux, parfois un peu tomenteux, en général sec.    
+Vizzini préfère le placer dans les Tubariaceae Vizz. 2008  mais les études phylogénétiques le classe dans le clade VI des agaricales.  Selon Index Fungorum                                      (7 avril 2012) et MycoBank                                            (7 avril 2012), il fait encore partie de la famille des Inocybaceae. Le genre est largement distribué (en particulier dans les régions tempérées) et contient environ 20 espèces. Type: Agaricus furfuraceus Pers. : Fr.
 Les sporophores sont de taille petite à moyenne, avec un chapeau de couleur variant du brun-rosâtre pâle à brun rougeâtre, et présentant souvent des restes de voile partiel adhérant à la marge. Ces champignons sont saprophytes, ils se développent sur le bois pourri ou, moins fréquemment, dans le sol. Aucune espèce du genre n'est réputée comestible.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tubaria était à l'origine un sous-genre d'Agaricus décrit par Worthington George Smith en 1870, dans le découpage morphologique de tradition friesienne où l'ensemble des Naucoria était encore mal connu jusqu'à la création du genre Alnicola[7]. C'est Claude Casimir Gillet qui l'a promu au rang générique en 1876.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tubaria était à l'origine un sous-genre d'Agaricus décrit par Worthington George Smith en 1870, dans le découpage morphologique de tradition friesienne où l'ensemble des Naucoria était encore mal connu jusqu'à la création du genre Alnicola. C'est Claude Casimir Gillet qui l'a promu au rang générique en 1876.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 avr. 2012)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 avr. 2012) :
 Tubaria albostipitata
 Tubaria bispora
 Tubaria confragosa
@@ -562,7 +578,7 @@
 Tubaria segestria
 Tubaria serrulata
 Tubaria vinicolor
-Selon Catalogue of Life                                   (7 avr. 2012)[9] :
+Selon Catalogue of Life                                   (7 avr. 2012) :
 Tubaria albostipitata
 Tubaria confragosa
 Tubaria conspersa
@@ -576,7 +592,7 @@
 Tubaria rufofulva
 Tubaria trigonophylla
 Tubaria umbrina
-Selon Paleobiology Database                   (7 avr. 2012)[10] :
+Selon Paleobiology Database                   (7 avr. 2012) :
 Tubaria genuina
 Tubaria rectaurita</t>
         </is>
